--- a/data/trans_orig/barthel-Clase-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,77</t>
+          <t>96,43; 99,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,81; 99,75</t>
+          <t>94,55; 99,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,47; 99,47</t>
+          <t>95,39; 99,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>98,11; 99,25</t>
+          <t>98,17; 99,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,64; 99,56</t>
+          <t>94,36; 99,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 99,78</t>
+          <t>86,04; 99,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,53; 99,0</t>
+          <t>87,18; 99,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>97,75; 99,1</t>
+          <t>97,8; 99,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,53</t>
+          <t>96,93; 99,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,92; 99,16</t>
+          <t>93,7; 99,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,77; 98,98</t>
+          <t>95,06; 98,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,08</t>
+          <t>98,29; 99,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,47; 99,75</t>
+          <t>98,43; 99,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 99,23</t>
+          <t>92,15; 99,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,46; 97,58</t>
+          <t>89,17; 97,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>97,17; 99,04</t>
+          <t>97,13; 99,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,1; 99,43</t>
+          <t>95,46; 99,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,63; 96,29</t>
+          <t>72,88; 96,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,81; 98,19</t>
+          <t>90,92; 98,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,1; 97,83</t>
+          <t>92,19; 97,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,22; 99,55</t>
+          <t>98,0; 99,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,41; 98,02</t>
+          <t>89,83; 97,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90,93; 97,36</t>
+          <t>90,48; 97,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,35</t>
+          <t>96,35; 98,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,5; 98,71</t>
+          <t>93,8; 98,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,58; 98,59</t>
+          <t>93,19; 98,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,97; 98,45</t>
+          <t>94,25; 98,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,09; 97,04</t>
+          <t>93,11; 97,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,96; 98,77</t>
+          <t>76,09; 98,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,36; 97,43</t>
+          <t>92,39; 97,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,49; 98,35</t>
+          <t>91,49; 98,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,7; 96,19</t>
+          <t>91,82; 96,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,99; 97,84</t>
+          <t>91,39; 97,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>94,27; 97,86</t>
+          <t>94,26; 97,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>94,81; 98,1</t>
+          <t>94,5; 98,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,15; 96,44</t>
+          <t>93,12; 96,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,46; 98,06</t>
+          <t>95,51; 98,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,68; 94,87</t>
+          <t>89,71; 95,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,16; 97,34</t>
+          <t>94,19; 97,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,8; 96,35</t>
+          <t>93,64; 96,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,64</t>
+          <t>93,96; 98,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 96,74</t>
+          <t>91,69; 96,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,54; 96,64</t>
+          <t>90,91; 96,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,65; 99,6</t>
+          <t>94,6; 99,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,95</t>
+          <t>95,71; 97,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,87; 95,02</t>
+          <t>90,59; 94,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93,9; 96,75</t>
+          <t>93,79; 96,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,78; 98,95</t>
+          <t>94,78; 98,8</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,97; 98,19</t>
+          <t>91,75; 98,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,99; 97,35</t>
+          <t>90,95; 97,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,7; 96,77</t>
+          <t>93,07; 96,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>93,25; 97,11</t>
+          <t>93,41; 97,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,64; 96,0</t>
+          <t>89,3; 95,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,08; 90,5</t>
+          <t>83,99; 90,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,38; 95,72</t>
+          <t>90,18; 95,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,12; 91,81</t>
+          <t>88,25; 91,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,77; 96,42</t>
+          <t>91,84; 96,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,89; 92,51</t>
+          <t>87,71; 92,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,38; 95,65</t>
+          <t>92,21; 95,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>90,21; 92,95</t>
+          <t>90,13; 92,85</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82,73; 97,53</t>
+          <t>80,93; 97,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,15; 96,84</t>
+          <t>94,29; 96,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,8; 93,59</t>
+          <t>89,88; 93,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,83; 94,61</t>
+          <t>90,72; 94,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,82; 91,93</t>
+          <t>88,8; 91,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>89,98; 93,73</t>
+          <t>89,84; 93,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90,83; 94,61</t>
+          <t>90,72; 94,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>89,07; 92,0</t>
+          <t>88,87; 91,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>96,48; 98,07</t>
+          <t>96,44; 98,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>93,51; 96,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,15; 96,98</t>
+          <t>95,12; 97,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,62; 96,94</t>
+          <t>95,71; 97,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>94,41; 96,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,01; 92,83</t>
+          <t>89,78; 92,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,18; 94,77</t>
+          <t>92,11; 94,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,99; 96,37</t>
+          <t>92,01; 96,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,63; 97,01</t>
+          <t>95,56; 96,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92,04; 93,81</t>
+          <t>91,89; 93,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>93,86; 95,41</t>
+          <t>93,87; 95,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,89; 96,44</t>
+          <t>93,9; 96,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/barthel-Clase-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
